--- a/calculo.xlsx
+++ b/calculo.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usuario/PhpstormProjects/daw-parcial-2022a/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D07F69-82E9-B343-8147-B9BAF5EF8B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28520" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -155,6 +171,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -202,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +254,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,21 +498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -467,7 +520,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -479,7 +532,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -491,7 +544,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +556,7 @@
         <v>8153.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +568,7 @@
         <v>9132.0320000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -527,7 +580,7 @@
         <v>10227.875840000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -539,7 +592,7 @@
         <v>9205.0882560000027</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -551,7 +604,7 @@
         <v>9849.4444339200036</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -563,19 +616,19 @@
         <v>10637.399988633604</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>11701.139987496965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11382.017987837957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -584,22 +637,22 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>12871.253986246662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12520.219786621754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>13514.816685558995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13271.432973819059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -608,28 +661,28 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>13920.261186125765</v>
+        <v>13669.575963033631</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
     </row>
   </sheetData>
@@ -639,24 +692,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
